--- a/InchFinityFiles/ToolboxOrganization/ToolboxOrganization Dimensions.xlsx
+++ b/InchFinityFiles/ToolboxOrganization/ToolboxOrganization Dimensions.xlsx
@@ -554,7 +554,7 @@
     <numFmt numFmtId="171" formatCode="\'#"/>
     <numFmt numFmtId="172" formatCode="#,##0"/>
     <numFmt numFmtId="173" formatCode="\'0"/>
-    <numFmt numFmtId="174" formatCode="\'#-?/??"/>
+    <numFmt numFmtId="174" formatCode="\'#\-?/??"/>
     <numFmt numFmtId="175" formatCode="# ??/??"/>
     <numFmt numFmtId="176" formatCode="#,##0.0"/>
   </numFmts>
@@ -795,7 +795,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1181,7 +1181,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="A2:L34"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="A13:L24 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2225,7 +2225,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:L34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A13:L24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2260,7 +2260,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:L34"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="A13:L24 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2640,7 +2640,7 @@
   <dimension ref="A1:AMJ174"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:L34"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2701,7 +2701,7 @@
       <c r="U1" s="6"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -2733,16 +2733,16 @@
       <c r="J2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="13" t="e">
-        <f aca="false">IF(,IF($I2=1,1,IF($I2&gt;1.0000001,TEXT($D2,"# ?/??"),TEXT($I2,"?/??")),TEXT(D2,"#.#")))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L2" s="14" t="e">
+      <c r="K2" s="13" t="str">
+        <f aca="false">IF($I2=1,1,IF($I2&gt;1.0000001,TEXT($D2,"# ?/??"),TEXT($I2,"?/??")))</f>
+        <v>5/32</v>
+      </c>
+      <c r="L2" s="14" t="str">
         <f aca="false">_xlfn.CONCAT("'",K2,J2)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>'5/32"</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>'3/16"</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>'7/32"</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -2858,14 +2858,14 @@
       </c>
       <c r="K5" s="13" t="str">
         <f aca="false">IF($I5=1,1,IF($I5&gt;1.0000001,TEXT($D5,"# ?/??"),TEXT($I5,"?/??")))</f>
-        <v>1/4 </v>
+        <v>1/4</v>
       </c>
       <c r="L5" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K5,J5)</f>
         <v>'1/4 "</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>'9/32"</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>'5/16"</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>'11/32"</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3022,14 +3022,14 @@
       </c>
       <c r="K9" s="13" t="str">
         <f aca="false">IF($I9=1,1,IF($I9&gt;1.0000001,TEXT($D9,"# ?/??"),TEXT($I9,"?/??")))</f>
-        <v>3/8 </v>
+        <v>3/8</v>
       </c>
       <c r="L9" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K9,J9)</f>
         <v>'3/8 "</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3070,7 +3070,7 @@
         <v>'7/16"</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3104,14 +3104,14 @@
       </c>
       <c r="K11" s="13" t="str">
         <f aca="false">IF($I11=1,1,IF($I11&gt;1.0000001,TEXT($D11,"# ?/??"),TEXT($I11,"?/??")))</f>
-        <v>1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="L11" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K11,J11)</f>
         <v>'1/2 "</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>'9/16"</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>4mm</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3234,7 +3234,7 @@
         <v>5mm</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3275,7 +3275,7 @@
         <v>5.5mm</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>6mm</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>7mm</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>8mm</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3439,7 +3439,7 @@
         <v>9mm</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>10mm</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3521,7 +3521,7 @@
         <v>11mm</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>12mm</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3603,7 +3603,7 @@
         <v>13mm</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>14mm</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>'3/16"</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3726,7 +3726,7 @@
         <v>'7/32"</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3760,14 +3760,14 @@
       </c>
       <c r="K27" s="13" t="str">
         <f aca="false">IF($I27=1,1,IF($I27&gt;1.0000001,TEXT($D27,"# ?/??"),TEXT($I27,"?/??")))</f>
-        <v>1/4 </v>
+        <v>1/4</v>
       </c>
       <c r="L27" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K27,J27)</f>
         <v>'1/4 "</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>'9/32"</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>'5/16"</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>'11/32"</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3924,14 +3924,14 @@
       </c>
       <c r="K31" s="13" t="str">
         <f aca="false">IF($I31=1,1,IF($I31&gt;1.0000001,TEXT($D31,"# ?/??"),TEXT($I31,"?/??")))</f>
-        <v>3/8 </v>
+        <v>3/8</v>
       </c>
       <c r="L31" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K31,J31)</f>
         <v>'3/8 "</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>'7/16"</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4006,14 +4006,14 @@
       </c>
       <c r="K33" s="13" t="str">
         <f aca="false">IF($I33=1,1,IF($I33&gt;1.0000001,TEXT($D33,"# ?/??"),TEXT($I33,"?/??")))</f>
-        <v>1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="L33" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K33,J33)</f>
         <v>'1/2 "</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>'9/16"</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>'3/16"</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>'7/32"</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4170,14 +4170,14 @@
       </c>
       <c r="K37" s="13" t="str">
         <f aca="false">IF($I37=1,1,IF($I37&gt;1.0000001,TEXT($D37,"# ?/??"),TEXT($I37,"?/??")))</f>
-        <v>1/4 </v>
+        <v>1/4</v>
       </c>
       <c r="L37" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K37,J37)</f>
         <v>'1/4 "</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4218,7 +4218,7 @@
         <v>'9/32"</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4259,7 +4259,7 @@
         <v>'5/16"</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>'11/32"</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4334,14 +4334,14 @@
       </c>
       <c r="K41" s="13" t="str">
         <f aca="false">IF($I41=1,1,IF($I41&gt;1.0000001,TEXT($D41,"# ?/??"),TEXT($I41,"?/??")))</f>
-        <v>3/8 </v>
+        <v>3/8</v>
       </c>
       <c r="L41" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K41,J41)</f>
         <v>'3/8 "</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>'7/16"</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4416,14 +4416,14 @@
       </c>
       <c r="K43" s="13" t="str">
         <f aca="false">IF($I43=1,1,IF($I43&gt;1.0000001,TEXT($D43,"# ?/??"),TEXT($I43,"?/??")))</f>
-        <v>1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="L43" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K43,J43)</f>
         <v>'1/2 "</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4464,7 +4464,7 @@
         <v>'9/16"</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>5mm</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>5.5mm</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>6mm</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4628,7 +4628,7 @@
         <v>7mm</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>8mm</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>9mm</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>10mm</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>11mm</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4833,7 +4833,7 @@
         <v>12mm</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>13mm</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="7" t="n">
         <v>0.25</v>
       </c>
@@ -4915,7 +4915,7 @@
         <v>14mm</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -4949,14 +4949,14 @@
       </c>
       <c r="K56" s="13" t="str">
         <f aca="false">IF($I56=1,1,IF($I56&gt;1.0000001,TEXT($D56,"# ?/??"),TEXT($I56,"?/??")))</f>
-        <v>1/4 </v>
+        <v>1/4</v>
       </c>
       <c r="L56" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K56,J56)</f>
         <v>'1/4 "</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>'5/16"</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5031,14 +5031,14 @@
       </c>
       <c r="K58" s="13" t="str">
         <f aca="false">IF($I58=1,1,IF($I58&gt;1.0000001,TEXT($D58,"# ?/??"),TEXT($I58,"?/??")))</f>
-        <v>3/8 </v>
+        <v>3/8</v>
       </c>
       <c r="L58" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K58,J58)</f>
         <v>'3/8 "</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>'7/16"</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5113,14 +5113,14 @@
       </c>
       <c r="K60" s="13" t="str">
         <f aca="false">IF($I60=1,1,IF($I60&gt;1.0000001,TEXT($D60,"# ?/??"),TEXT($I60,"?/??")))</f>
-        <v>1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="L60" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K60,J60)</f>
         <v>'1/2 "</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>'9/16"</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5195,14 +5195,14 @@
       </c>
       <c r="K62" s="13" t="str">
         <f aca="false">IF($I62=1,1,IF($I62&gt;1.0000001,TEXT($D62,"# ?/??"),TEXT($I62,"?/??")))</f>
-        <v>5/8 </v>
+        <v>5/8</v>
       </c>
       <c r="L62" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K62,J62)</f>
         <v>'5/8 "</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>'11/16"</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5277,14 +5277,14 @@
       </c>
       <c r="K64" s="13" t="str">
         <f aca="false">IF($I64=1,1,IF($I64&gt;1.0000001,TEXT($D64,"# ?/??"),TEXT($I64,"?/??")))</f>
-        <v>3/4 </v>
+        <v>3/4</v>
       </c>
       <c r="L64" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K64,J64)</f>
         <v>'3/4 "</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>'13/16"</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5359,14 +5359,14 @@
       </c>
       <c r="K66" s="13" t="str">
         <f aca="false">IF($I66=1,1,IF($I66&gt;1.0000001,TEXT($D66,"# ?/??"),TEXT($I66,"?/??")))</f>
-        <v>7/8 </v>
+        <v>7/8</v>
       </c>
       <c r="L66" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K66,J66)</f>
         <v>'7/8 "</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>'15/16"</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>'1"</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>6mm</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>7mm</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>8mm</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>9mm</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>10mm</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>11mm</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>12mm</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>13mm</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>14mm</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5858,7 +5858,7 @@
         <v>15mm</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>16mm</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>17mm</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>18mm</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>19mm</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>20mm</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>21mm</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>22mm</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>23mm</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>24mm</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6261,14 +6261,14 @@
       </c>
       <c r="K88" s="13" t="str">
         <f aca="false">IF($I88=1,1,IF($I88&gt;1.0000001,TEXT($D88,"# ?/??"),TEXT($I88,"?/??")))</f>
-        <v>1/4 </v>
+        <v>1/4</v>
       </c>
       <c r="L88" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K88,J88)</f>
         <v>'1/4 "</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6309,7 +6309,7 @@
         <v>'5/16"</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6343,14 +6343,14 @@
       </c>
       <c r="K90" s="13" t="str">
         <f aca="false">IF($I90=1,1,IF($I90&gt;1.0000001,TEXT($D90,"# ?/??"),TEXT($I90,"?/??")))</f>
-        <v>3/8 </v>
+        <v>3/8</v>
       </c>
       <c r="L90" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K90,J90)</f>
         <v>'3/8 "</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>'7/16"</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6425,14 +6425,14 @@
       </c>
       <c r="K92" s="13" t="str">
         <f aca="false">IF($I92=1,1,IF($I92&gt;1.0000001,TEXT($D92,"# ?/??"),TEXT($I92,"?/??")))</f>
-        <v>1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="L92" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K92,J92)</f>
         <v>'1/2 "</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6473,7 +6473,7 @@
         <v>'9/16"</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6507,14 +6507,14 @@
       </c>
       <c r="K94" s="13" t="str">
         <f aca="false">IF($I94=1,1,IF($I94&gt;1.0000001,TEXT($D94,"# ?/??"),TEXT($I94,"?/??")))</f>
-        <v>5/8 </v>
+        <v>5/8</v>
       </c>
       <c r="L94" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K94,J94)</f>
         <v>'5/8 "</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6555,7 +6555,7 @@
         <v>'11/16"</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6589,14 +6589,14 @@
       </c>
       <c r="K96" s="13" t="str">
         <f aca="false">IF($I96=1,1,IF($I96&gt;1.0000001,TEXT($D96,"# ?/??"),TEXT($I96,"?/??")))</f>
-        <v>3/4 </v>
+        <v>3/4</v>
       </c>
       <c r="L96" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K96,J96)</f>
         <v>'3/4 "</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>'13/16"</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6671,14 +6671,14 @@
       </c>
       <c r="K98" s="13" t="str">
         <f aca="false">IF($I98=1,1,IF($I98&gt;1.0000001,TEXT($D98,"# ?/??"),TEXT($I98,"?/??")))</f>
-        <v>7/8 </v>
+        <v>7/8</v>
       </c>
       <c r="L98" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K98,J98)</f>
         <v>'7/8 "</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>'15/16"</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>'1"</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>6mm</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6842,7 +6842,7 @@
         <v>7mm</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>8mm</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6924,7 +6924,7 @@
         <v>9mm</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -6965,7 +6965,7 @@
         <v>10mm</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7006,7 +7006,7 @@
         <v>11mm</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>12mm</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>13mm</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>14mm</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>15mm</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>16mm</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>17mm</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>18mm</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7334,7 +7334,7 @@
         <v>19mm</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>20mm</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>21mm</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>22mm</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>23mm</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>24mm</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>8mm</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>9mm</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>10mm</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>11mm</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>12mm</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7785,7 +7785,7 @@
         <v>13mm</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>14mm</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7867,7 +7867,7 @@
         <v>15mm</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>16mm</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7949,7 +7949,7 @@
         <v>17mm</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>18mm</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="n">
         <v>0.375</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>19mm</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="18" t="n">
         <v>0.375</v>
       </c>
@@ -8062,14 +8062,14 @@
       </c>
       <c r="K132" s="13" t="str">
         <f aca="false">IF($I132=1,1,IF($I132&gt;1.0000001,TEXT($D132,"# ?/??"),TEXT($I132,"?/??")))</f>
-        <v>3/8 </v>
+        <v>3/8</v>
       </c>
       <c r="L132" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K132,J132)</f>
         <v>'3/8 "</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="18" t="n">
         <v>0.375</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>'7/16"</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="18" t="n">
         <v>0.375</v>
       </c>
@@ -8138,14 +8138,14 @@
       </c>
       <c r="K134" s="13" t="str">
         <f aca="false">IF($I134=1,1,IF($I134&gt;1.0000001,TEXT($D134,"# ?/??"),TEXT($I134,"?/??")))</f>
-        <v>1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="L134" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K134,J134)</f>
         <v>'1/2 "</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="18" t="n">
         <v>0.375</v>
       </c>
@@ -8183,7 +8183,7 @@
         <v>'9/16"</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="18" t="n">
         <v>0.375</v>
       </c>
@@ -8214,14 +8214,14 @@
       </c>
       <c r="K136" s="13" t="str">
         <f aca="false">IF($I136=1,1,IF($I136&gt;1.0000001,TEXT($D136,"# ?/??"),TEXT($I136,"?/??")))</f>
-        <v>5/8 </v>
+        <v>5/8</v>
       </c>
       <c r="L136" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K136,J136)</f>
         <v>'5/8 "</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="18" t="n">
         <v>0.375</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>'11/16"</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>'7/16"</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8326,14 +8326,14 @@
       </c>
       <c r="K139" s="13" t="str">
         <f aca="false">IF($I139=1,1,IF($I139&gt;1.0000001,TEXT($D139,"# ?/??"),TEXT($I139,"?/??")))</f>
-        <v>1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="L139" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K139,J139)</f>
         <v>'1/2 "</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>'9/16"</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8400,14 +8400,14 @@
       </c>
       <c r="K141" s="13" t="str">
         <f aca="false">IF($I141=1,1,IF($I141&gt;1.0000001,TEXT($D141,"# ?/??"),TEXT($I141,"?/??")))</f>
-        <v>5/8 </v>
+        <v>5/8</v>
       </c>
       <c r="L141" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K141,J141)</f>
         <v>'5/8 "</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>'11/16"</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8474,14 +8474,14 @@
       </c>
       <c r="K143" s="13" t="str">
         <f aca="false">IF($I143=1,1,IF($I143&gt;1.0000001,TEXT($D143,"# ?/??"),TEXT($I143,"?/??")))</f>
-        <v>3/4 </v>
+        <v>3/4</v>
       </c>
       <c r="L143" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K143,J143)</f>
         <v>'3/4 "</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8518,7 +8518,7 @@
         <v>'13/16"</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8548,14 +8548,14 @@
       </c>
       <c r="K145" s="13" t="str">
         <f aca="false">IF($I145=1,1,IF($I145&gt;1.0000001,TEXT($D145,"# ?/??"),TEXT($I145,"?/??")))</f>
-        <v>7/8 </v>
+        <v>7/8</v>
       </c>
       <c r="L145" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K145,J145)</f>
         <v>'7/8 "</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8592,7 +8592,7 @@
         <v>'15/16"</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8628,7 +8628,7 @@
         <v>11mm</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8664,7 +8664,7 @@
         <v>12mm</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>13mm</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>14mm</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8772,7 +8772,7 @@
         <v>15mm</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>16mm</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>17mm</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>18mm</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>19mm</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>20mm</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>21mm</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>22mm</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>23mm</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>24mm</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>'7/16"</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9171,14 +9171,14 @@
       </c>
       <c r="K162" s="13" t="str">
         <f aca="false">IF($I162=1,1,IF($I162&gt;1.0000001,TEXT($D162,"# ?/??"),TEXT($I162,"?/??")))</f>
-        <v>1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="L162" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K162,J162)</f>
         <v>'1/2 "</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9219,7 +9219,7 @@
         <v>'9/16"</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9253,14 +9253,14 @@
       </c>
       <c r="K164" s="13" t="str">
         <f aca="false">IF($I164=1,1,IF($I164&gt;1.0000001,TEXT($D164,"# ?/??"),TEXT($I164,"?/??")))</f>
-        <v>5/8 </v>
+        <v>5/8</v>
       </c>
       <c r="L164" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K164,J164)</f>
         <v>'5/8 "</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9301,7 +9301,7 @@
         <v>'11/16"</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9335,14 +9335,14 @@
       </c>
       <c r="K166" s="13" t="str">
         <f aca="false">IF($I166=1,1,IF($I166&gt;1.0000001,TEXT($D166,"# ?/??"),TEXT($I166,"?/??")))</f>
-        <v>3/4 </v>
+        <v>3/4</v>
       </c>
       <c r="L166" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K166,J166)</f>
         <v>'3/4 "</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>'13/16"</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9417,14 +9417,14 @@
       </c>
       <c r="K168" s="13" t="str">
         <f aca="false">IF($I168=1,1,IF($I168&gt;1.0000001,TEXT($D168,"# ?/??"),TEXT($I168,"?/??")))</f>
-        <v>7/8 </v>
+        <v>7/8</v>
       </c>
       <c r="L168" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K168,J168)</f>
         <v>'7/8 "</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>'15/16"</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>'1"</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9547,7 +9547,7 @@
         <v>'1  1/16"</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9581,14 +9581,14 @@
       </c>
       <c r="K172" s="25" t="str">
         <f aca="false">IF(I172=1,1,IF(I172&gt;1.0000001,TEXT(D172,"# ??/??"),TEXT(I172,"??/??")))</f>
-        <v>1  1/8 </v>
+        <v>1  1/8</v>
       </c>
       <c r="L172" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K172,J172)</f>
         <v>'1  1/8 "</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9622,14 +9622,14 @@
       </c>
       <c r="K173" s="25" t="str">
         <f aca="false">IF(I173=1,1,IF(I173&gt;1.0000001,TEXT(D173,"# ??/??"),TEXT(I173,"??/??")))</f>
-        <v>1  1/4 </v>
+        <v>1  1/4</v>
       </c>
       <c r="L173" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K173,J173)</f>
         <v>'1  1/4 "</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="18" t="n">
         <v>0.5</v>
       </c>
@@ -9663,7 +9663,7 @@
       </c>
       <c r="K174" s="25" t="str">
         <f aca="false">IF(I174=1,1,IF(I174&gt;1.0000001,TEXT(D174,"# ??/??"),TEXT(I174,"??/??")))</f>
-        <v>2  1/4 </v>
+        <v>2  1/4</v>
       </c>
       <c r="L174" s="9" t="str">
         <f aca="false">_xlfn.CONCAT("'",K174,J174)</f>
@@ -9674,7 +9674,7 @@
   <autoFilter ref="A1:L174">
     <filterColumn colId="1">
       <filters>
-        <filter val="SAE"/>
+        <filter val="Metric"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9697,7 +9697,7 @@
   <dimension ref="A1:AMJ1047"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="A2:L34"/>
+      <selection pane="topLeft" activeCell="E5" activeCellId="1" sqref="A13:L24 E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9731,7 +9731,7 @@
       </c>
       <c r="C1" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(TEXT(L4,"??/??"),"",M4," ",P4,"pt")</f>
-        <v> 1/4 SAE 6pt</v>
+        <v>1/4 SAE 6pt</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -9844,7 +9844,7 @@
       </c>
       <c r="B4" s="33" t="str">
         <f aca="false">W4</f>
-        <v> 5/32"</v>
+        <v>5/32"</v>
       </c>
       <c r="C4" s="34" t="n">
         <f aca="false">R4*25.4</f>
@@ -9911,11 +9911,11 @@
       </c>
       <c r="V4" s="25" t="str">
         <f aca="false">IF(T4=1,1,IF(T4&gt;1.0000001,TEXT(O4,"# ??/??"),TEXT(T4,"??/??")))</f>
-        <v> 5/32</v>
+        <v>5/32</v>
       </c>
       <c r="W4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V4,U4)</f>
-        <v> 5/32"</v>
+        <v>5/32"</v>
       </c>
       <c r="AB4" s="25"/>
     </row>
@@ -9926,7 +9926,7 @@
       </c>
       <c r="B5" s="33" t="str">
         <f aca="false">IF(ISBLANK($L5),"",W5)</f>
-        <v> 3/16"</v>
+        <v>3/16"</v>
       </c>
       <c r="C5" s="34" t="n">
         <f aca="false">IF(ISBLANK($L5),"",R5*25.4)</f>
@@ -9997,11 +9997,11 @@
       </c>
       <c r="V5" s="25" t="str">
         <f aca="false">IF(T5=1,1,IF(T5&gt;1.0000001,TEXT(O5,"# ??/??"),TEXT(T5,"??/??")))</f>
-        <v> 3/16</v>
+        <v>3/16</v>
       </c>
       <c r="W5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V5,U5)</f>
-        <v> 3/16"</v>
+        <v>3/16"</v>
       </c>
       <c r="AB5" s="25"/>
     </row>
@@ -10012,7 +10012,7 @@
       </c>
       <c r="B6" s="33" t="str">
         <f aca="false">IF(ISBLANK($L6),"",W6)</f>
-        <v> 7/32"</v>
+        <v>7/32"</v>
       </c>
       <c r="C6" s="34" t="n">
         <f aca="false">IF(ISBLANK($L6),"",R6*25.4)</f>
@@ -10083,11 +10083,11 @@
       </c>
       <c r="V6" s="25" t="str">
         <f aca="false">IF(T6=1,1,IF(T6&gt;1.0000001,TEXT(O6,"# ??/??"),TEXT(T6,"??/??")))</f>
-        <v> 7/32</v>
+        <v>7/32</v>
       </c>
       <c r="W6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V6,U6)</f>
-        <v> 7/32"</v>
+        <v>7/32"</v>
       </c>
       <c r="AB6" s="25"/>
     </row>
@@ -10098,7 +10098,7 @@
       </c>
       <c r="B7" s="33" t="str">
         <f aca="false">IF(ISBLANK($L7),"",W7)</f>
-        <v> 1/4 "</v>
+        <v>1/4 "</v>
       </c>
       <c r="C7" s="34" t="n">
         <f aca="false">IF(ISBLANK($L7),"",R7*25.4)</f>
@@ -10169,11 +10169,11 @@
       </c>
       <c r="V7" s="25" t="str">
         <f aca="false">IF(T7=1,1,IF(T7&gt;1.0000001,TEXT(O7,"# ??/??"),TEXT(T7,"??/??")))</f>
-        <v> 1/4 </v>
+        <v>1/4</v>
       </c>
       <c r="W7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V7,U7)</f>
-        <v> 1/4 "</v>
+        <v>1/4 "</v>
       </c>
       <c r="AB7" s="25"/>
     </row>
@@ -10184,7 +10184,7 @@
       </c>
       <c r="B8" s="33" t="str">
         <f aca="false">IF(ISBLANK($L8),"",W8)</f>
-        <v> 9/32"</v>
+        <v>9/32"</v>
       </c>
       <c r="C8" s="34" t="n">
         <f aca="false">IF(ISBLANK($L8),"",R8*25.4)</f>
@@ -10255,11 +10255,11 @@
       </c>
       <c r="V8" s="25" t="str">
         <f aca="false">IF(T8=1,1,IF(T8&gt;1.0000001,TEXT(O8,"# ??/??"),TEXT(T8,"??/??")))</f>
-        <v> 9/32</v>
+        <v>9/32</v>
       </c>
       <c r="W8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V8,U8)</f>
-        <v> 9/32"</v>
+        <v>9/32"</v>
       </c>
       <c r="AB8" s="25"/>
     </row>
@@ -10270,7 +10270,7 @@
       </c>
       <c r="B9" s="33" t="str">
         <f aca="false">IF(ISBLANK($L9),"",W9)</f>
-        <v> 5/16"</v>
+        <v>5/16"</v>
       </c>
       <c r="C9" s="34" t="n">
         <f aca="false">IF(ISBLANK($L9),"",R9*25.4)</f>
@@ -10341,11 +10341,11 @@
       </c>
       <c r="V9" s="25" t="str">
         <f aca="false">IF(T9=1,1,IF(T9&gt;1.0000001,TEXT(O9,"# ??/??"),TEXT(T9,"??/??")))</f>
-        <v> 5/16</v>
+        <v>5/16</v>
       </c>
       <c r="W9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V9,U9)</f>
-        <v> 5/16"</v>
+        <v>5/16"</v>
       </c>
       <c r="AB9" s="25"/>
     </row>
@@ -10442,7 +10442,7 @@
       </c>
       <c r="B11" s="33" t="str">
         <f aca="false">IF(ISBLANK($L11),"",W11)</f>
-        <v> 3/8 "</v>
+        <v>3/8 "</v>
       </c>
       <c r="C11" s="34" t="n">
         <f aca="false">IF(ISBLANK($L11),"",R11*25.4)</f>
@@ -10513,11 +10513,11 @@
       </c>
       <c r="V11" s="25" t="str">
         <f aca="false">IF(T11=1,1,IF(T11&gt;1.0000001,TEXT(O11,"# ??/??"),TEXT(T11,"??/??")))</f>
-        <v> 3/8 </v>
+        <v>3/8</v>
       </c>
       <c r="W11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V11,U11)</f>
-        <v> 3/8 "</v>
+        <v>3/8 "</v>
       </c>
       <c r="AB11" s="25"/>
     </row>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="B12" s="33" t="str">
         <f aca="false">IF(ISBLANK($L12),"",W12)</f>
-        <v> 7/16"</v>
+        <v>7/16"</v>
       </c>
       <c r="C12" s="34" t="n">
         <f aca="false">IF(ISBLANK($L12),"",R12*25.4)</f>
@@ -10599,11 +10599,11 @@
       </c>
       <c r="V12" s="25" t="str">
         <f aca="false">IF(T12=1,1,IF(T12&gt;1.0000001,TEXT(O12,"# ??/??"),TEXT(T12,"??/??")))</f>
-        <v> 7/16</v>
+        <v>7/16</v>
       </c>
       <c r="W12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V12,U12)</f>
-        <v> 7/16"</v>
+        <v>7/16"</v>
       </c>
       <c r="AB12" s="25"/>
     </row>
@@ -10614,7 +10614,7 @@
       </c>
       <c r="B13" s="33" t="str">
         <f aca="false">IF(ISBLANK($L13),"",W13)</f>
-        <v> 1/2 "</v>
+        <v>1/2 "</v>
       </c>
       <c r="C13" s="34" t="n">
         <f aca="false">IF(ISBLANK($L13),"",R13*25.4)</f>
@@ -10685,11 +10685,11 @@
       </c>
       <c r="V13" s="25" t="str">
         <f aca="false">IF(T13=1,1,IF(T13&gt;1.0000001,TEXT(O13,"# ??/??"),TEXT(T13,"??/??")))</f>
-        <v> 1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="W13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V13,U13)</f>
-        <v> 1/2 "</v>
+        <v>1/2 "</v>
       </c>
       <c r="AB13" s="25"/>
     </row>
@@ -10700,7 +10700,7 @@
       </c>
       <c r="B14" s="33" t="str">
         <f aca="false">IF(ISBLANK($L14),"",W14)</f>
-        <v> 9/16"</v>
+        <v>9/16"</v>
       </c>
       <c r="C14" s="34" t="n">
         <f aca="false">IF(ISBLANK($L14),"",R14*25.4)</f>
@@ -10767,11 +10767,11 @@
       </c>
       <c r="V14" s="25" t="str">
         <f aca="false">IF(T14=1,1,IF(T14&gt;1.0000001,TEXT(O14,"# ??/??"),TEXT(T14,"??/??")))</f>
-        <v> 9/16</v>
+        <v>9/16</v>
       </c>
       <c r="W14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V14,U14)</f>
-        <v> 9/16"</v>
+        <v>9/16"</v>
       </c>
       <c r="AB14" s="25"/>
     </row>
@@ -13992,7 +13992,7 @@
   <dimension ref="A1:AMJ1011"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A2:L34"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A13:L24 A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14131,7 +14131,7 @@
       </c>
       <c r="B4" s="33" t="str">
         <f aca="false">W4</f>
-        <v> 5/32"</v>
+        <v>5/32"</v>
       </c>
       <c r="C4" s="34" t="n">
         <f aca="false">R4*25.4</f>
@@ -14198,11 +14198,11 @@
       </c>
       <c r="V4" s="25" t="str">
         <f aca="false">IF(T4=1,1,IF(T4&gt;1.0000001,TEXT(O4,"# ??/??"),TEXT(T4,"??/??")))</f>
-        <v> 5/32</v>
+        <v>5/32</v>
       </c>
       <c r="W4" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V4,U4)</f>
-        <v> 5/32"</v>
+        <v>5/32"</v>
       </c>
       <c r="AB4" s="25"/>
     </row>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="B5" s="33" t="str">
         <f aca="false">W5</f>
-        <v> 3/16"</v>
+        <v>3/16"</v>
       </c>
       <c r="C5" s="34" t="n">
         <f aca="false">R5*25.4</f>
@@ -14281,11 +14281,11 @@
       </c>
       <c r="V5" s="25" t="str">
         <f aca="false">IF(T5=1,1,IF(T5&gt;1.0000001,TEXT(O5,"# ??/??"),TEXT(T5,"??/??")))</f>
-        <v> 3/16</v>
+        <v>3/16</v>
       </c>
       <c r="W5" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V5,U5)</f>
-        <v> 3/16"</v>
+        <v>3/16"</v>
       </c>
       <c r="AB5" s="25"/>
     </row>
@@ -14296,7 +14296,7 @@
       </c>
       <c r="B6" s="33" t="str">
         <f aca="false">W6</f>
-        <v> 7/32"</v>
+        <v>7/32"</v>
       </c>
       <c r="C6" s="34" t="n">
         <f aca="false">R6*25.4</f>
@@ -14364,11 +14364,11 @@
       </c>
       <c r="V6" s="25" t="str">
         <f aca="false">IF(T6=1,1,IF(T6&gt;1.0000001,TEXT(O6,"# ??/??"),TEXT(T6,"??/??")))</f>
-        <v> 7/32</v>
+        <v>7/32</v>
       </c>
       <c r="W6" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V6,U6)</f>
-        <v> 7/32"</v>
+        <v>7/32"</v>
       </c>
       <c r="AB6" s="25"/>
     </row>
@@ -14379,7 +14379,7 @@
       </c>
       <c r="B7" s="33" t="str">
         <f aca="false">W7</f>
-        <v> 1/4 "</v>
+        <v>1/4 "</v>
       </c>
       <c r="C7" s="34" t="n">
         <f aca="false">R7*25.4</f>
@@ -14447,11 +14447,11 @@
       </c>
       <c r="V7" s="25" t="str">
         <f aca="false">IF(T7=1,1,IF(T7&gt;1.0000001,TEXT(O7,"# ??/??"),TEXT(T7,"??/??")))</f>
-        <v> 1/4 </v>
+        <v>1/4</v>
       </c>
       <c r="W7" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V7,U7)</f>
-        <v> 1/4 "</v>
+        <v>1/4 "</v>
       </c>
       <c r="AB7" s="25"/>
     </row>
@@ -14462,7 +14462,7 @@
       </c>
       <c r="B8" s="33" t="str">
         <f aca="false">W8</f>
-        <v> 9/32"</v>
+        <v>9/32"</v>
       </c>
       <c r="C8" s="34" t="n">
         <f aca="false">R8*25.4</f>
@@ -14530,11 +14530,11 @@
       </c>
       <c r="V8" s="25" t="str">
         <f aca="false">IF(T8=1,1,IF(T8&gt;1.0000001,TEXT(O8,"# ??/??"),TEXT(T8,"??/??")))</f>
-        <v> 9/32</v>
+        <v>9/32</v>
       </c>
       <c r="W8" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V8,U8)</f>
-        <v> 9/32"</v>
+        <v>9/32"</v>
       </c>
       <c r="AB8" s="25"/>
     </row>
@@ -14545,7 +14545,7 @@
       </c>
       <c r="B9" s="33" t="str">
         <f aca="false">W9</f>
-        <v> 5/16"</v>
+        <v>5/16"</v>
       </c>
       <c r="C9" s="34" t="n">
         <f aca="false">R9*25.4</f>
@@ -14613,11 +14613,11 @@
       </c>
       <c r="V9" s="25" t="str">
         <f aca="false">IF(T9=1,1,IF(T9&gt;1.0000001,TEXT(O9,"# ??/??"),TEXT(T9,"??/??")))</f>
-        <v> 5/16</v>
+        <v>5/16</v>
       </c>
       <c r="W9" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V9,U9)</f>
-        <v> 5/16"</v>
+        <v>5/16"</v>
       </c>
       <c r="AB9" s="25"/>
     </row>
@@ -14711,7 +14711,7 @@
       </c>
       <c r="B11" s="33" t="str">
         <f aca="false">W11</f>
-        <v> 3/8 "</v>
+        <v>3/8 "</v>
       </c>
       <c r="C11" s="34" t="n">
         <f aca="false">R11*25.4</f>
@@ -14779,11 +14779,11 @@
       </c>
       <c r="V11" s="25" t="str">
         <f aca="false">IF(T11=1,1,IF(T11&gt;1.0000001,TEXT(O11,"# ??/??"),TEXT(T11,"??/??")))</f>
-        <v> 3/8 </v>
+        <v>3/8</v>
       </c>
       <c r="W11" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V11,U11)</f>
-        <v> 3/8 "</v>
+        <v>3/8 "</v>
       </c>
       <c r="AB11" s="25"/>
     </row>
@@ -14794,7 +14794,7 @@
       </c>
       <c r="B12" s="33" t="str">
         <f aca="false">W12</f>
-        <v> 7/16"</v>
+        <v>7/16"</v>
       </c>
       <c r="C12" s="34" t="n">
         <f aca="false">R12*25.4</f>
@@ -14862,11 +14862,11 @@
       </c>
       <c r="V12" s="25" t="str">
         <f aca="false">IF(T12=1,1,IF(T12&gt;1.0000001,TEXT(O12,"# ??/??"),TEXT(T12,"??/??")))</f>
-        <v> 7/16</v>
+        <v>7/16</v>
       </c>
       <c r="W12" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V12,U12)</f>
-        <v> 7/16"</v>
+        <v>7/16"</v>
       </c>
       <c r="AB12" s="25"/>
     </row>
@@ -14877,7 +14877,7 @@
       </c>
       <c r="B13" s="33" t="str">
         <f aca="false">W13</f>
-        <v> 1/2 "</v>
+        <v>1/2 "</v>
       </c>
       <c r="C13" s="34" t="n">
         <f aca="false">R13*25.4</f>
@@ -14945,11 +14945,11 @@
       </c>
       <c r="V13" s="25" t="str">
         <f aca="false">IF(T13=1,1,IF(T13&gt;1.0000001,TEXT(O13,"# ??/??"),TEXT(T13,"??/??")))</f>
-        <v> 1/2 </v>
+        <v>1/2</v>
       </c>
       <c r="W13" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V13,U13)</f>
-        <v> 1/2 "</v>
+        <v>1/2 "</v>
       </c>
       <c r="AB13" s="25"/>
     </row>
@@ -14960,7 +14960,7 @@
       </c>
       <c r="B14" s="33" t="str">
         <f aca="false">W14</f>
-        <v> 9/16"</v>
+        <v>9/16"</v>
       </c>
       <c r="C14" s="34" t="n">
         <f aca="false">R14*25.4</f>
@@ -15028,11 +15028,11 @@
       </c>
       <c r="V14" s="25" t="str">
         <f aca="false">IF(T14=1,1,IF(T14&gt;1.0000001,TEXT(O14,"# ??/??"),TEXT(T14,"??/??")))</f>
-        <v> 9/16</v>
+        <v>9/16</v>
       </c>
       <c r="W14" s="0" t="str">
         <f aca="false">_xlfn.CONCAT(V14,U14)</f>
-        <v> 9/16"</v>
+        <v>9/16"</v>
       </c>
       <c r="AB14" s="25"/>
     </row>
@@ -16592,7 +16592,7 @@
   <dimension ref="A1:AMJ1011"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:L34 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A13:L24 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16626,7 +16626,7 @@
       </c>
       <c r="C1" s="5" t="str">
         <f aca="false">_xlfn.CONCAT(TEXT(L4,"??/??"),"",M4," ",P4,"pt")</f>
-        <v> 1/4 Metric 6pt</v>
+        <v>1/4 Metric 6pt</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
@@ -19257,7 +19257,7 @@
   <dimension ref="A1:R228"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A6" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A227" activeCellId="1" sqref="A2:L34 A227"/>
+      <selection pane="topLeft" activeCell="A227" activeCellId="1" sqref="A13:L24 A227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30033,7 +30033,7 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="A2:L34"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A13:L24 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30452,7 +30452,7 @@
   <dimension ref="A1:G102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A2:L34 G1"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="1" sqref="A13:L24 G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -32717,7 +32717,7 @@
   <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="A2:L34"/>
+      <selection pane="topLeft" activeCell="I2" activeCellId="1" sqref="A13:L24 I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
